--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
@@ -457,7 +457,7 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
@@ -465,7 +465,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" hidden="1">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
@@ -473,7 +473,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" hidden="1">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
@@ -481,7 +481,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
@@ -489,7 +489,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" hidden="1">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
@@ -497,7 +497,7 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" hidden="1">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
@@ -505,7 +505,7 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
@@ -637,17 +637,17 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" hidden="1">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -699,7 +699,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
@@ -710,7 +710,7 @@
       <x:c r="A3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -721,7 +721,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
@@ -732,7 +732,7 @@
       <x:c r="A5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
@@ -743,7 +743,7 @@
       <x:c r="A6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
@@ -754,7 +754,7 @@
       <x:c r="A7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
@@ -803,32 +803,32 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" hidden="1">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" hidden="1">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Numbers</x:t>
   </x:si>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
@@ -6,11 +6,11 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Single Column Numbers" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Single Column Strings" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Single Column Mixed" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Multi Column" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Table" sheetId="6" r:id="rId6"/>
+    <x:sheet name="Single Column Numbers" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Single Column Strings" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Single Column Mixed" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Multi Column" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Table" sheetId="5" r:id="rId6"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Column Numbers'!$A$1:$B$8</x:definedName>

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/RegularAutoFilter.xlsx
@@ -31,10 +31,10 @@
     <x:t>Names</x:t>
   </x:si>
   <x:si>
+    <x:t>Alex</x:t>
+  </x:si>
+  <x:si>
     <x:t>Jacques</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alex</x:t>
   </x:si>
   <x:si>
     <x:t>Patrick</x:t>
@@ -456,7 +456,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:2" hidden="1">
       <x:c r="A2" s="0">
         <x:v>5</x:v>
       </x:c>
@@ -464,7 +464,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2" hidden="1">
+    <x:row r="3" spans="1:2">
       <x:c r="A3" s="0">
         <x:v>5</x:v>
       </x:c>
